--- a/supports/Revue_littérature.xlsx
+++ b/supports/Revue_littérature.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33616\Desktop\MemoireDeRechercheMaster2\supports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED223C45-CE54-4B0B-80DE-42B640249DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9450378B-8A70-4B11-936A-0FA217AB8A66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="529" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Lien</t>
   </si>
@@ -186,6 +196,23 @@
   </si>
   <si>
     <t>http://alain.battandier.free.fr/spip.php?article19</t>
+  </si>
+  <si>
+    <t>The effects of social media on emotions, brand relationship quality,
+and word of mouth: An empirical study of music festival attendees</t>
+  </si>
+  <si>
+    <t>Simon Hudson
+Martin S. Roth
+Thomas J. Madden
+Rupert Hudson</t>
+  </si>
+  <si>
+    <t>This study examines the influence of social media on customer relationships.
+_x0001_ A conceptual model was developed and tested using structural equation modeling.
+_x0001_ The use of social media of attendees with music festivals was examined.
+_x0001_ Results show social media usage has a significant influence on festival engagement.
+_x0001_ Social media-based relationships also lead to positive word of mouth recommendations.</t>
   </si>
 </sst>
 </file>
@@ -697,9 +724,9 @@
   </sheetPr>
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.3" x14ac:dyDescent="0.4"/>
@@ -709,7 +736,7 @@
     <col min="3" max="3" width="25.38671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.0546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -1088,7 +1115,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:28" ht="61.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" ht="76.8" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
         <v>8</v>
@@ -1258,13 +1285,19 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28" ht="15.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" ht="321.60000000000002" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
